--- a/biology/Botanique/Ballon_(verre)/Ballon_(verre).xlsx
+++ b/biology/Botanique/Ballon_(verre)/Ballon_(verre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le ballon est un verre qui doit son nom à sa forme. On distingue plusieurs tailles en fonction du liquide qu’il doit contenir (vin, cognac, armagnac, pastis etc.)[1].Si ce verre a toujours un pied, même petit, qui sert à la préhension et à l’esthétique, sa forme, sa taille,  l’épaisseur du verre et les caractéristiques du bord ont une grande influence sur l’aspect gustatif du breuvage. Par exemple pour un vin, en apprécier particulièrement le tanin, l’arôme, l’acidité, etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ballon est un verre qui doit son nom à sa forme. On distingue plusieurs tailles en fonction du liquide qu’il doit contenir (vin, cognac, armagnac, pastis etc.).Si ce verre a toujours un pied, même petit, qui sert à la préhension et à l’esthétique, sa forme, sa taille,  l’épaisseur du verre et les caractéristiques du bord ont une grande influence sur l’aspect gustatif du breuvage. Par exemple pour un vin, en apprécier particulièrement le tanin, l’arôme, l’acidité, etc.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Rôle de la forme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour une carafe à décanter, la quantité d’air présente à l’intérieur du verre joue un rôle important pour l’aération, la maturation et le dégagement des arômes d’un vin rouge. Pour le vin blanc, ses arômes fragiles seront préservés par un espace plus réduit et une évaporation plus lente.
 La dimension du col influencera le dégustateur sur la position de sa tête, de sa langue au contact du liquide :
@@ -548,15 +562,52 @@
           <t>Verre à cognac</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Verre à Cognac
 			Pipe à Cognac ou Armagnac
 Le verre à cognac est un verre ballon sur un pied court, d’une contenance recommandée de 6 à 9 cl et tenu dans le creux de la main pour réchauffer l’alcool et mieux dégager son arôme.
 Verre également utilisé pour le brandy et l’armagnac.
-Pipe à Cognac ou Armagnac
-Une pipe à cognac est un verre  ballon muni d’un tube, appelée pipette qui sert à aspirer le liquide tout en tenant le bulbe du verre bien au chaud dans la creux de la main ou sur le rebord d’une cheminée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ballon_(verre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ballon_(verre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Verre à cognac</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pipe à Cognac ou Armagnac</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une pipe à cognac est un verre  ballon muni d’un tube, appelée pipette qui sert à aspirer le liquide tout en tenant le bulbe du verre bien au chaud dans la creux de la main ou sur le rebord d’une cheminée.
 </t>
         </is>
       </c>
